--- a/data-raw/metadata/yuba_trap_metadata.xlsx
+++ b/data-raw/metadata/yuba_trap_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-yuba-edi/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/jpe-yuba-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD703D7-B231-3D4E-B042-8D8FBCEC173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7889C3-981C-274F-8AC7-769E3EF21C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62420" yWindow="1560" windowWidth="34120" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -329,18 +329,16 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +557,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,43 +578,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1"/>
@@ -634,29 +632,29 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -672,29 +670,29 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="17"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -710,33 +708,33 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="17" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="20">
+      <c r="K4" s="11"/>
+      <c r="L4" s="17">
         <v>44851.581990740742</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <v>45133.427314814813</v>
       </c>
       <c r="N4" s="1"/>
@@ -754,29 +752,29 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="15"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -792,29 +790,29 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="15"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -830,29 +828,29 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -868,29 +866,29 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -906,29 +904,29 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -944,37 +942,37 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15">
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12">
         <v>3</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="12">
         <v>10022</v>
       </c>
       <c r="N10" s="1"/>
@@ -992,37 +990,37 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15">
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12">
         <v>0</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="12">
         <v>7.8</v>
       </c>
       <c r="N11" s="1"/>
@@ -1040,37 +1038,37 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15">
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12">
         <v>0.2</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="12">
         <v>7</v>
       </c>
       <c r="N12" s="1"/>
@@ -1088,29 +1086,29 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1126,37 +1124,37 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15">
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12">
         <v>0</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="12">
         <v>0</v>
       </c>
       <c r="N14" s="1"/>
@@ -1174,35 +1172,35 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1218,37 +1216,37 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15">
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12">
         <v>4</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="12">
         <v>18</v>
       </c>
       <c r="N16" s="1"/>
@@ -1266,37 +1264,37 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15">
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="12">
         <v>0.45</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="12">
         <v>39.4</v>
       </c>
       <c r="N17" s="5"/>
@@ -1958,7 +1956,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -1986,7 +1984,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -2014,7 +2012,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -2042,7 +2040,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>

--- a/data-raw/metadata/yuba_trap_metadata.xlsx
+++ b/data-raw/metadata/yuba_trap_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/jpe-yuba-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7889C3-981C-274F-8AC7-769E3EF21C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F2550E-BD8E-CA4E-85E0-9E9A98B032E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="62420" yWindow="1560" windowWidth="34120" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -148,9 +148,6 @@
     <t>includeCatch</t>
   </si>
   <si>
-    <t>discharge</t>
-  </si>
-  <si>
     <t>waterTemp</t>
   </si>
   <si>
@@ -176,12 +173,6 @@
   </si>
   <si>
     <t>attribute_name</t>
-  </si>
-  <si>
-    <t>Discharge measured at trap</t>
-  </si>
-  <si>
-    <t>cubicFeetPerSecond</t>
   </si>
   <si>
     <t>enumerated</t>
@@ -554,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>17</v>
@@ -645,7 +636,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -756,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>14</v>
@@ -794,7 +785,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
@@ -832,7 +823,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
@@ -870,7 +861,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -908,7 +899,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1090,7 +1081,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1125,16 +1116,16 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>32</v>
@@ -1143,7 +1134,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>34</v>
@@ -1151,12 +1142,8 @@
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12">
-        <v>0</v>
-      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1173,16 +1160,16 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>32</v>
@@ -1191,7 +1178,7 @@
         <v>31</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>34</v>
@@ -1199,8 +1186,12 @@
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="12">
+        <v>4</v>
+      </c>
+      <c r="M15" s="12">
+        <v>18</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1216,11 +1207,11 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>41</v>
+      <c r="A16" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>31</v>
@@ -1235,7 +1226,7 @@
         <v>31</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>34</v>
@@ -1244,59 +1235,39 @@
       <c r="J16" s="12"/>
       <c r="K16" s="11"/>
       <c r="L16" s="12">
-        <v>4</v>
+        <v>0.45</v>
       </c>
       <c r="M16" s="12">
-        <v>18</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12">
-        <v>0.45</v>
-      </c>
-      <c r="M17" s="12">
         <v>39.4</v>
       </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -1312,11 +1283,11 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1325,19 +1296,19 @@
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -1928,7 +1899,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -1956,7 +1927,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -1984,7 +1955,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -2012,7 +1983,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -2040,7 +2011,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -2992,7 +2963,7 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
+      <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -28919,50 +28890,22 @@
       <c r="Y1003" s="1"/>
       <c r="Z1003" s="1"/>
     </row>
-    <row r="1004" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1004" s="1"/>
-      <c r="B1004" s="1"/>
-      <c r="C1004" s="1"/>
-      <c r="D1004" s="2"/>
-      <c r="E1004" s="1"/>
-      <c r="F1004" s="3"/>
-      <c r="G1004" s="3"/>
-      <c r="H1004" s="3"/>
-      <c r="I1004" s="2"/>
-      <c r="J1004" s="3"/>
-      <c r="K1004" s="2"/>
-      <c r="L1004" s="3"/>
-      <c r="M1004" s="3"/>
-      <c r="N1004" s="1"/>
-      <c r="O1004" s="1"/>
-      <c r="P1004" s="1"/>
-      <c r="Q1004" s="1"/>
-      <c r="R1004" s="1"/>
-      <c r="S1004" s="1"/>
-      <c r="T1004" s="1"/>
-      <c r="U1004" s="1"/>
-      <c r="V1004" s="1"/>
-      <c r="W1004" s="1"/>
-      <c r="X1004" s="1"/>
-      <c r="Y1004" s="1"/>
-      <c r="Z1004" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E19:E1004 E1:E17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E18:E1003 E1:E16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H7 F1:F1004" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H7 F1:F1003" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C19:C49 C61:C1004 C1:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:C48 C60:C1003 C1:C16" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H6 H8:H1004" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H6 H8:H1003" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28989,13 +28932,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -29026,7 +28969,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>13</v>

--- a/data-raw/metadata/yuba_trap_metadata.xlsx
+++ b/data-raw/metadata/yuba_trap_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/jpe-yuba-edi/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-yuba-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F2550E-BD8E-CA4E-85E0-9E9A98B032E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FE1A5A-8C06-EB4F-86CD-053FB64AF074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62420" yWindow="1560" windowWidth="34120" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,8 +1142,12 @@
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>

--- a/data-raw/metadata/yuba_trap_metadata.xlsx
+++ b/data-raw/metadata/yuba_trap_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/jpe-yuba-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7889C3-981C-274F-8AC7-769E3EF21C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F27E5C-A772-DD4D-B480-F1A203AC602B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62420" yWindow="1560" windowWidth="34120" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29120" yWindow="540" windowWidth="34080" windowHeight="23980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -148,9 +148,6 @@
     <t>includeCatch</t>
   </si>
   <si>
-    <t>discharge</t>
-  </si>
-  <si>
     <t>waterTemp</t>
   </si>
   <si>
@@ -176,12 +173,6 @@
   </si>
   <si>
     <t>attribute_name</t>
-  </si>
-  <si>
-    <t>Discharge measured at trap</t>
-  </si>
-  <si>
-    <t>cubicFeetPerSecond</t>
   </si>
   <si>
     <t>enumerated</t>
@@ -554,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>17</v>
@@ -645,7 +636,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -756,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>14</v>
@@ -794,7 +785,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
@@ -832,7 +823,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
@@ -870,7 +861,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -908,7 +899,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1021,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="12">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1066,10 +1057,10 @@
       <c r="J12" s="12"/>
       <c r="K12" s="11"/>
       <c r="L12" s="12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="12">
-        <v>7</v>
+        <v>1877</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1090,7 +1081,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1125,16 +1116,16 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>32</v>
@@ -1143,7 +1134,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>34</v>
@@ -1155,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="12">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1173,16 +1164,16 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>32</v>
@@ -1191,7 +1182,7 @@
         <v>31</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>34</v>
@@ -1199,8 +1190,12 @@
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="12">
+        <v>4</v>
+      </c>
+      <c r="M15" s="12">
+        <v>18</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1216,11 +1211,11 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>41</v>
+      <c r="A16" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>31</v>
@@ -1235,7 +1230,7 @@
         <v>31</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>34</v>
@@ -1244,59 +1239,39 @@
       <c r="J16" s="12"/>
       <c r="K16" s="11"/>
       <c r="L16" s="12">
-        <v>4</v>
+        <v>0.45</v>
       </c>
       <c r="M16" s="12">
-        <v>18</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12">
-        <v>0.45</v>
-      </c>
-      <c r="M17" s="12">
         <v>39.4</v>
       </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -1312,11 +1287,11 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1325,19 +1300,19 @@
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -1928,7 +1903,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -1956,7 +1931,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -1984,7 +1959,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -2012,7 +1987,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -2040,7 +2015,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -2992,7 +2967,7 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
+      <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -28919,50 +28894,22 @@
       <c r="Y1003" s="1"/>
       <c r="Z1003" s="1"/>
     </row>
-    <row r="1004" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1004" s="1"/>
-      <c r="B1004" s="1"/>
-      <c r="C1004" s="1"/>
-      <c r="D1004" s="2"/>
-      <c r="E1004" s="1"/>
-      <c r="F1004" s="3"/>
-      <c r="G1004" s="3"/>
-      <c r="H1004" s="3"/>
-      <c r="I1004" s="2"/>
-      <c r="J1004" s="3"/>
-      <c r="K1004" s="2"/>
-      <c r="L1004" s="3"/>
-      <c r="M1004" s="3"/>
-      <c r="N1004" s="1"/>
-      <c r="O1004" s="1"/>
-      <c r="P1004" s="1"/>
-      <c r="Q1004" s="1"/>
-      <c r="R1004" s="1"/>
-      <c r="S1004" s="1"/>
-      <c r="T1004" s="1"/>
-      <c r="U1004" s="1"/>
-      <c r="V1004" s="1"/>
-      <c r="W1004" s="1"/>
-      <c r="X1004" s="1"/>
-      <c r="Y1004" s="1"/>
-      <c r="Z1004" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E19:E1004 E1:E17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E18:E1003 E1:E16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H7 F1:F1004" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H7 F1:F1003" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C19:C49 C61:C1004 C1:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:C48 C60:C1003 C1:C16" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H6 H8:H1004" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H6 H8:H1003" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28989,13 +28936,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -29026,7 +28973,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>13</v>

--- a/data-raw/metadata/yuba_trap_metadata.xlsx
+++ b/data-raw/metadata/yuba_trap_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-yuba-edi/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/jpe-yuba-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1BF279-1410-EF4E-88EA-72481AD40BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7976D758-2B31-B24C-AD12-03B23AEA8B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="580" windowWidth="30240" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29080" yWindow="1220" windowWidth="21400" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
